--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+  <si>
+    <t>INDEX</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>sib.INDEX</t>
+  </si>
+  <si>
     <t>sib.name</t>
   </si>
   <si>
@@ -28,25 +34,40 @@
     <t>sib.addr</t>
   </si>
   <si>
+    <t>frnds.INDEX</t>
+  </si>
+  <si>
     <t>frnds.b</t>
   </si>
   <si>
     <t>frnds.best</t>
   </si>
   <si>
+    <t>abhi</t>
+  </si>
+  <si>
     <t>aditi</t>
   </si>
   <si>
+    <t>ashish</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
+    <t>adadaa</t>
+  </si>
+  <si>
     <t>fjaslkff kjas</t>
   </si>
   <si>
+    <t>kjljl</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
 </sst>
 </file>
@@ -404,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,101 +450,328 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>98765</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
       </c>
       <c r="F2">
+        <v>2345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>12345</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
       <c r="F3">
+        <v>3456</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
-        <v>5</v>
+        <v>98765</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7">
+        <v>12345</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2345</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>3456</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
-  <si>
-    <t>INDEX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>sib.INDEX</t>
-  </si>
-  <si>
     <t>sib.name</t>
   </si>
   <si>
@@ -34,9 +28,6 @@
     <t>sib.addr</t>
   </si>
   <si>
-    <t>frnds.INDEX</t>
-  </si>
-  <si>
     <t>frnds.b</t>
   </si>
   <si>
@@ -50,6 +41,27 @@
   </si>
   <si>
     <t>ashish</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
   <si>
     <t>null</t>
@@ -425,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,328 +462,741 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+        <v>2345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>2345</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
+        <v>3456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>3456</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>2345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>98765</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>3456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>12345</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
+        <v>2345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>98765</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="D11">
+        <v>12345</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2</v>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>2345</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
+        <v>98765</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>3456</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12345</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
+      <c r="D16">
+        <v>98765</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>98765</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12345</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>98765</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>12345</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>98765</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>12345</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>2345</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>3456</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>2345</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>3456</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>2345</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>3456</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,61 +14,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>pets.name</t>
-  </si>
-  <si>
-    <t>pets.species</t>
-  </si>
-  <si>
-    <t>pets.favFoods</t>
-  </si>
-  <si>
-    <t>pets.birthYear</t>
-  </si>
-  <si>
-    <t>pets.photo</t>
-  </si>
-  <si>
-    <t>Purrsloud</t>
-  </si>
-  <si>
-    <t>Barksalot</t>
-  </si>
-  <si>
-    <t>Meowsalot</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>['wet food', 'dry food', '&lt;strong&gt;any&lt;/strong&gt; food']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>accNo</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>abhi</t>
+  </si>
+  <si>
+    <t>aditi</t>
+  </si>
+  <si>
+    <t>ashish</t>
+  </si>
+  <si>
+    <t>bank1</t>
+  </si>
+  <si>
+    <t>bank2</t>
+  </si>
+  <si>
+    <t>bank3</t>
+  </si>
+  <si>
+    <t>bank4</t>
+  </si>
+  <si>
+    <t>bank5</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>['tuna', 'catnip', 'celery']</t>
-  </si>
-  <si>
-    <t>https://learnwebcode.github.io/json-example/images/cat-2.jpg</t>
-  </si>
-  <si>
-    <t>https://learnwebcode.github.io/json-example/images/dog-1.jpg</t>
-  </si>
-  <si>
-    <t>https://learnwebcode.github.io/json-example/images/cat-1.jpg</t>
+    <t>address1111</t>
+  </si>
+  <si>
+    <t>address2222</t>
+  </si>
+  <si>
+    <t>address3333</t>
+  </si>
+  <si>
+    <t>frnd1</t>
+  </si>
+  <si>
+    <t>frnd2</t>
+  </si>
+  <si>
+    <t>frnd3</t>
+  </si>
+  <si>
+    <t>frnd4</t>
+  </si>
+  <si>
+    <t>frnd5</t>
+  </si>
+  <si>
+    <t>frnd6</t>
+  </si>
+  <si>
+    <t>frnd8</t>
+  </si>
+  <si>
+    <t>frnd9</t>
+  </si>
+  <si>
+    <t>frnd10</t>
+  </si>
+  <si>
+    <t>frnd11</t>
+  </si>
+  <si>
+    <t>frnd12</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +131,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,22 +165,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +487,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -465,62 +503,201 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2016</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2">
+        <v>2345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2008</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3">
+        <v>3456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>98765</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>12345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>2012</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2345</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>3456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,102 +14,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>formed</t>
+  </si>
+  <si>
+    <t>homeTown</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>eyeColor</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>accNo</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>abhi</t>
-  </si>
-  <si>
-    <t>aditi</t>
-  </si>
-  <si>
-    <t>ashish</t>
-  </si>
-  <si>
-    <t>bank1</t>
-  </si>
-  <si>
-    <t>bank2</t>
-  </si>
-  <si>
-    <t>bank3</t>
-  </si>
-  <si>
-    <t>bank4</t>
-  </si>
-  <si>
-    <t>bank5</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>address1111</t>
-  </si>
-  <si>
-    <t>address2222</t>
-  </si>
-  <si>
-    <t>address3333</t>
-  </si>
-  <si>
-    <t>frnd1</t>
-  </si>
-  <si>
-    <t>frnd2</t>
-  </si>
-  <si>
-    <t>frnd3</t>
-  </si>
-  <si>
-    <t>frnd4</t>
-  </si>
-  <si>
-    <t>frnd5</t>
-  </si>
-  <si>
-    <t>frnd6</t>
-  </si>
-  <si>
-    <t>frnd8</t>
-  </si>
-  <si>
-    <t>frnd9</t>
-  </si>
-  <si>
-    <t>frnd10</t>
-  </si>
-  <si>
-    <t>frnd11</t>
-  </si>
-  <si>
-    <t>frnd12</t>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>secretBase</t>
+  </si>
+  <si>
+    <t>squadName</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Metro City</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>true</t>
+    <t>Bentley Clayton</t>
+  </si>
+  <si>
+    <t>Lela Ramos</t>
+  </si>
+  <si>
+    <t>Milagros Becker</t>
+  </si>
+  <si>
+    <t>Mccoy Barrera</t>
+  </si>
+  <si>
+    <t>Morton Bennett</t>
+  </si>
+  <si>
+    <t>Acosta Bird</t>
+  </si>
+  <si>
+    <t>Mcleod Keith</t>
+  </si>
+  <si>
+    <t>Magdalena Burgess</t>
+  </si>
+  <si>
+    <t>Cline Castaneda</t>
+  </si>
+  <si>
+    <t>Garcia Baker</t>
+  </si>
+  <si>
+    <t>Lenora Keller</t>
+  </si>
+  <si>
+    <t>Kathryn Donovan</t>
+  </si>
+  <si>
+    <t>Opal Hinton</t>
+  </si>
+  <si>
+    <t>Mayer Gray</t>
+  </si>
+  <si>
+    <t>Josefina Quinn</t>
+  </si>
+  <si>
+    <t>2018-05-02T05:35:41 +04:00</t>
+  </si>
+  <si>
+    <t>2014-02-24T03:13:50 +05:00</t>
+  </si>
+  <si>
+    <t>2016-10-22T12:18:50 +04:00</t>
+  </si>
+  <si>
+    <t>2016-12-03T03:44:57 +05:00</t>
+  </si>
+  <si>
+    <t>2015-10-06T09:48:03 +04:00</t>
+  </si>
+  <si>
+    <t>2019-02-11T09:59:58 +05:00</t>
+  </si>
+  <si>
+    <t>2014-04-24T07:50:11 +04:00</t>
+  </si>
+  <si>
+    <t>2015-03-19T09:28:55 +04:00</t>
+  </si>
+  <si>
+    <t>2016-02-29T09:49:37 +05:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T02:54:22 +04:00</t>
+  </si>
+  <si>
+    <t>2017-12-19T05:12:17 +05:00</t>
+  </si>
+  <si>
+    <t>2014-03-21T12:33:36 +04:00</t>
+  </si>
+  <si>
+    <t>2014-05-03T02:14:25 +04:00</t>
+  </si>
+  <si>
+    <t>2016-04-01T05:52:21 +04:00</t>
+  </si>
+  <si>
+    <t>2015-02-07T12:04:14 +05:00</t>
+  </si>
+  <si>
+    <t>Super tower</t>
+  </si>
+  <si>
+    <t>Super hero squad</t>
   </si>
 </sst>
 </file>
@@ -467,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,214 +547,643 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2345</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2016</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>3456</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2016</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>98765</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>12345</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2016</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
+      </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>2345</v>
-      </c>
-      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2016</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>3456</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,105 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>details.bank</t>
-  </si>
-  <si>
-    <t>details.accNo</t>
-  </si>
-  <si>
-    <t>details.addr</t>
-  </si>
-  <si>
-    <t>frnds.name</t>
-  </si>
-  <si>
-    <t>frnds.best</t>
-  </si>
-  <si>
-    <t>abhi</t>
-  </si>
-  <si>
-    <t>aditi</t>
-  </si>
-  <si>
-    <t>ashish</t>
-  </si>
-  <si>
-    <t>bank1</t>
-  </si>
-  <si>
-    <t>bank2</t>
-  </si>
-  <si>
-    <t>bank3</t>
-  </si>
-  <si>
-    <t>bank4</t>
-  </si>
-  <si>
-    <t>bank5</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>address1111</t>
-  </si>
-  <si>
-    <t>address2222</t>
-  </si>
-  <si>
-    <t>address3333</t>
-  </si>
-  <si>
-    <t>frnd1</t>
-  </si>
-  <si>
-    <t>frnd2</t>
-  </si>
-  <si>
-    <t>frnd3</t>
-  </si>
-  <si>
-    <t>frnd4</t>
-  </si>
-  <si>
-    <t>frnd5</t>
-  </si>
-  <si>
-    <t>frnd6</t>
-  </si>
-  <si>
-    <t>frnd8</t>
-  </si>
-  <si>
-    <t>frnd9</t>
-  </si>
-  <si>
-    <t>frnd10</t>
-  </si>
-  <si>
-    <t>frnd11</t>
-  </si>
-  <si>
-    <t>frnd12</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>marks-INDEX</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>sci</t>
+  </si>
+  <si>
+    <t>f-INDEX</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>abhishek</t>
   </si>
 </sst>
 </file>
@@ -470,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,201 +425,62 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2345</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3456</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>98765</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>12345</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>2345</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>3456</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -7,46 +7,34 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="abhi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>sib.name</t>
-  </si>
-  <si>
-    <t>sib.ph</t>
-  </si>
-  <si>
-    <t>sib.addr</t>
-  </si>
-  <si>
-    <t>frnds.b</t>
-  </si>
-  <si>
-    <t>frnds.best</t>
-  </si>
-  <si>
-    <t>aditi</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>fjaslkff kjas</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>marks-INDEX</t>
+  </si>
+  <si>
+    <t>marks-maths</t>
+  </si>
+  <si>
+    <t>marks-sci</t>
+  </si>
+  <si>
+    <t>f-INDEX</t>
+  </si>
+  <si>
+    <t>f-id</t>
+  </si>
+  <si>
+    <t>abhishek</t>
   </si>
 </sst>
 </file>
@@ -404,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +426,19 @@
         <v>6</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>98765</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,39 +446,30 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,32 +477,10 @@
         <v>3</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,39 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sib.name</t>
-  </si>
-  <si>
-    <t>sib.ph</t>
-  </si>
-  <si>
-    <t>sib.addr</t>
-  </si>
-  <si>
-    <t>frnds.b</t>
-  </si>
-  <si>
-    <t>frnds.best</t>
-  </si>
-  <si>
-    <t>aditi</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>fjaslkff kjas</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>squadName</t>
+  </si>
+  <si>
+    <t>homeTown</t>
+  </si>
+  <si>
+    <t>formed</t>
+  </si>
+  <si>
+    <t>secretBase</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>members.name</t>
+  </si>
+  <si>
+    <t>members.age</t>
+  </si>
+  <si>
+    <t>members.secretIdentity</t>
+  </si>
+  <si>
+    <t>members.powers</t>
+  </si>
+  <si>
+    <t>Super hero squad</t>
+  </si>
+  <si>
+    <t>Metro City</t>
+  </si>
+  <si>
+    <t>Super tower</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Molecule Man</t>
+  </si>
+  <si>
+    <t>Madame Uppercut</t>
+  </si>
+  <si>
+    <t>Eternal Flame</t>
+  </si>
+  <si>
+    <t>Dan Jukes</t>
+  </si>
+  <si>
+    <t>Jane Wilson</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>['Radiation resistance', 'Turning tiny', 'Radiation blast']</t>
+  </si>
+  <si>
+    <t>['Million tonne punch', 'Damage resistance', 'Superhuman reflexes']</t>
+  </si>
+  <si>
+    <t>['Immortality', 'Heat Immunity', 'Inferno', 'Teleportation', 'Interdimensional travel']</t>
   </si>
 </sst>
 </file>
@@ -404,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,101 +462,80 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>98765</v>
+        <v>2016</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>1000000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,72 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>squadName</t>
-  </si>
-  <si>
-    <t>homeTown</t>
-  </si>
-  <si>
-    <t>formed</t>
-  </si>
-  <si>
-    <t>secretBase</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>members.name</t>
-  </si>
-  <si>
-    <t>members.age</t>
-  </si>
-  <si>
-    <t>members.secretIdentity</t>
-  </si>
-  <si>
-    <t>members.powers</t>
-  </si>
-  <si>
-    <t>Super hero squad</t>
-  </si>
-  <si>
-    <t>Metro City</t>
-  </si>
-  <si>
-    <t>Super tower</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Molecule Man</t>
-  </si>
-  <si>
-    <t>Madame Uppercut</t>
-  </si>
-  <si>
-    <t>Eternal Flame</t>
-  </si>
-  <si>
-    <t>Dan Jukes</t>
-  </si>
-  <si>
-    <t>Jane Wilson</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>['Radiation resistance', 'Turning tiny', 'Radiation blast']</t>
-  </si>
-  <si>
-    <t>['Million tonne punch', 'Damage resistance', 'Superhuman reflexes']</t>
-  </si>
-  <si>
-    <t>['Immortality', 'Heat Immunity', 'Inferno', 'Teleportation', 'Interdimensional travel']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sib.name</t>
+  </si>
+  <si>
+    <t>sib.ph</t>
+  </si>
+  <si>
+    <t>sib.addr</t>
+  </si>
+  <si>
+    <t>frnds.b</t>
+  </si>
+  <si>
+    <t>frnds.best</t>
+  </si>
+  <si>
+    <t>aditi</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>fjaslkff kjas</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -437,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,80 +429,101 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>98765</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>2016</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>12345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1000000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -64,7 +64,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>nonononono</t>
+    <t>null</t>
   </si>
   <si>
     <t>address1111</t>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -19,19 +19,19 @@
     <t>name</t>
   </si>
   <si>
-    <t>details.bank</t>
-  </si>
-  <si>
-    <t>details.accNo</t>
-  </si>
-  <si>
-    <t>details.addr</t>
-  </si>
-  <si>
-    <t>frnds.name</t>
-  </si>
-  <si>
-    <t>frnds.best</t>
+    <t>details_bank</t>
+  </si>
+  <si>
+    <t>details_accNo</t>
+  </si>
+  <si>
+    <t>details_addr</t>
+  </si>
+  <si>
+    <t>frnds_name</t>
+  </si>
+  <si>
+    <t>frnds_best</t>
   </si>
   <si>
     <t>abhi</t>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>aditi</t>
   </si>
   <si>
-    <t>ashish</t>
-  </si>
-  <si>
     <t>bank1</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>bank5</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
     <t>address2222</t>
   </si>
   <si>
-    <t>address3333</t>
-  </si>
-  <si>
     <t>frnd1</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
   </si>
   <si>
     <t>frnd10</t>
-  </si>
-  <si>
-    <t>frnd11</t>
-  </si>
-  <si>
-    <t>frnd12</t>
   </si>
   <si>
     <t>false</t>
@@ -470,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,61 +486,88 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2345</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3456</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -566,84 +575,114 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>98765</v>
+        <v>2345</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>12345</v>
+        <v>3456</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2345</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>3456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>98765</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -651,53 +690,321 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>2345</v>
+        <v>12345</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>3456</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>98765</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>12345</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>98765</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>12345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>98765</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>12345</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>98765</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>12345</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -34,64 +34,31 @@
     <t>frnds_best</t>
   </si>
   <si>
-    <t>abhi</t>
-  </si>
-  <si>
     <t>aditi</t>
   </si>
   <si>
-    <t>bank1</t>
-  </si>
-  <si>
-    <t>bank2</t>
+    <t>bank5</t>
   </si>
   <si>
     <t>bank3</t>
   </si>
   <si>
-    <t>bank4</t>
-  </si>
-  <si>
-    <t>bank5</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>address1111</t>
-  </si>
-  <si>
     <t>address2222</t>
   </si>
   <si>
-    <t>frnd1</t>
-  </si>
-  <si>
-    <t>frnd2</t>
-  </si>
-  <si>
-    <t>frnd3</t>
-  </si>
-  <si>
-    <t>frnd4</t>
-  </si>
-  <si>
-    <t>frnd5</t>
+    <t>frnd8</t>
+  </si>
+  <si>
+    <t>frnd9</t>
   </si>
   <si>
     <t>frnd6</t>
   </si>
   <si>
-    <t>frnd8</t>
-  </si>
-  <si>
-    <t>frnd9</t>
-  </si>
-  <si>
     <t>frnd10</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>true</t>
@@ -452,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,53 +447,53 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2345</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>3456</v>
+        <v>98765</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -535,44 +502,44 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2345</v>
+        <v>98765</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>3456</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -581,44 +548,44 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>2345</v>
+        <v>98765</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>3456</v>
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -627,384 +594,39 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>2345</v>
+        <v>98765</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>3456</v>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>98765</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>12345</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>98765</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>12345</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>98765</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>12345</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>98765</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>12345</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>98765</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>12345</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,55 +14,235 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>details_bank</t>
-  </si>
-  <si>
-    <t>details_accNo</t>
-  </si>
-  <si>
-    <t>details_addr</t>
-  </si>
-  <si>
-    <t>frnds_name</t>
-  </si>
-  <si>
-    <t>frnds_best</t>
-  </si>
-  <si>
-    <t>aditi</t>
-  </si>
-  <si>
-    <t>bank5</t>
-  </si>
-  <si>
-    <t>bank4</t>
-  </si>
-  <si>
-    <t>bank3</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>address2222</t>
-  </si>
-  <si>
-    <t>frnd8</t>
-  </si>
-  <si>
-    <t>true</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="74">
+  <si>
+    <t>feeds_id</t>
+  </si>
+  <si>
+    <t>feeds_title</t>
+  </si>
+  <si>
+    <t>feeds_description</t>
+  </si>
+  <si>
+    <t>feeds_location</t>
+  </si>
+  <si>
+    <t>feeds_lng</t>
+  </si>
+  <si>
+    <t>feeds_lat</t>
+  </si>
+  <si>
+    <t>feeds_userId</t>
+  </si>
+  <si>
+    <t>feeds_name</t>
+  </si>
+  <si>
+    <t>feeds_isdeleted</t>
+  </si>
+  <si>
+    <t>feeds_profilePicture</t>
+  </si>
+  <si>
+    <t>feeds_videoUrl</t>
+  </si>
+  <si>
+    <t>feeds_images</t>
+  </si>
+  <si>
+    <t>feeds_mediatype</t>
+  </si>
+  <si>
+    <t>feeds_imagePaths</t>
+  </si>
+  <si>
+    <t>feeds_feedsComment</t>
+  </si>
+  <si>
+    <t>feeds_commentCount</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_id</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_name</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_description</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_url</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_mediatype</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_likeCount</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_place</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_createAt</t>
+  </si>
+  <si>
+    <t>feeds_likeDislike_likes</t>
+  </si>
+  <si>
+    <t>feeds_likeDislike_dislikes</t>
+  </si>
+  <si>
+    <t>feeds_likeDislike_userAction</t>
+  </si>
+  <si>
+    <t>feeds_createdAt</t>
+  </si>
+  <si>
+    <t>feeds_code</t>
+  </si>
+  <si>
+    <t>feeds_msg</t>
+  </si>
+  <si>
+    <t>totalFeed</t>
+  </si>
+  <si>
+    <t>awerfghnm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test for the New </t>
+  </si>
+  <si>
+    <t>Testing Video Details</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Mocktails</t>
+  </si>
+  <si>
+    <t>Christmas Decoration</t>
+  </si>
+  <si>
+    <t>Thanks Giving Day</t>
+  </si>
+  <si>
+    <t>This is new Year 2020 and we are very happy. Thank you to much. And BYE BYE 2019</t>
+  </si>
+  <si>
+    <t>Testing for new Video. Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.Testing for new Video.</t>
+  </si>
+  <si>
+    <t>Testing Video Details. Testing Video DetailsTesting Video DetailsTesting Video DetailsTesting Video DetailsTesting Video DetailsTesting Video Details. Thanks for the Help</t>
+  </si>
+  <si>
+    <t>A vacation is what you take when you can no longer take what you’ve been taking</t>
+  </si>
+  <si>
+    <t>A non-alcoholic mixed drink is a cocktail-style beverage made without alcoholic ingredients. Cocktails rose in popularity during the 1980s, and became increasingly popular in the 2000s. The use of cocktails has proliferated deep into the drinking culture</t>
+  </si>
+  <si>
+    <t>Christmas is an annual festival commemorating the birth of Jesus Christ, observed primarily on December 25 as a religious and cultural celebration among billions of people around the world.</t>
+  </si>
+  <si>
+    <t>Thanksgiving is a national holiday in the United States, celebrated on the fourth Thursday of November. It originated as a harvest festival. ... The event that Americans commonly call the "First Thanksgiving" was celebrated by the Pilgrims after their first harvest in the New World in October 1621.</t>
+  </si>
+  <si>
+    <t>14, Ambala-Dehradun-Haridwar Rd, Vidhan Sabha Marg, Shastri Nagar, Ajabpur Kalan, Dehradun, Uttarakhand 248121, India</t>
+  </si>
+  <si>
+    <t>A-10, Sector 63 Rd, A Block, Sector 65, Noida, Uttar Pradesh 201301, India</t>
+  </si>
+  <si>
+    <t>Hermannplatz 5-6, 10967 Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Laxmi Nagar, Ostwal Nagari, Oswal Nagari, Nalasopara East, Nala Sopara, Maharashtra 401209, India</t>
+  </si>
+  <si>
+    <t>Jaypee Greens Pari Chowk, Tugalpur Village, Greater Noida, Uttar Pradesh 201310, India</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Laxmi Nager New Delhi</t>
+  </si>
+  <si>
+    <t>Ashish Thapliyal</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Images/fc8af47d-ef15-4c25-9d3f-a7a58c7444f9.png</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Surabaya.jpg</t>
+  </si>
+  <si>
+    <t>Event 60.jpg</t>
+  </si>
+  <si>
+    <t>Event 27.jpg</t>
+  </si>
+  <si>
+    <t>feedsmedia/3031/1adbfd14-937c-4c06-ba00-99991eae4289.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/iNSVjuZQ_9A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/c6OSTcaMU6c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/LaFtAcIrGWA</t>
+  </si>
+  <si>
+    <t>feedsmedia/3031/daec1589-8084-4cb7-afbd-799b18a35d20.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0dnUWYQeLXE</t>
+  </si>
+  <si>
+    <t>feedsmedia/3031/bb4b9bbc-428d-4085-bb9a-c58e53f09fc5.jpg</t>
+  </si>
+  <si>
+    <t>0001-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-01T12:32:56.8783764</t>
+  </si>
+  <si>
+    <t>2020-01-01T04:42:58.9380507</t>
+  </si>
+  <si>
+    <t>2019-12-31T08:02:40.6864975</t>
+  </si>
+  <si>
+    <t>2019-12-30T11:01:10.5935467</t>
+  </si>
+  <si>
+    <t>2019-12-26T09:11:23.7423307</t>
+  </si>
+  <si>
+    <t>2019-12-24T07:50:28.8627474</t>
+  </si>
+  <si>
+    <t>2019-12-24T07:40:55.6467688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +257,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,16 +298,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,13 +606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,77 +631,3370 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>2131</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3031</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3230</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2120</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3031</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>3212</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2117</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>98765</v>
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3031</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>3209</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>2107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3031</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>3175</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="1">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>1092</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3031</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2159</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>1074</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3031</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2140</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>1073</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3031</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>2138</v>
+      </c>
+      <c r="S8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="1">
+        <v>158</v>
+      </c>
+      <c r="B9">
+        <v>2131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3031</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>3230</v>
+      </c>
+      <c r="S9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="1">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>2120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3031</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>3212</v>
+      </c>
+      <c r="T10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1">
+        <v>179</v>
+      </c>
+      <c r="B11">
+        <v>2117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3031</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3209</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="1">
+        <v>213</v>
+      </c>
+      <c r="B12">
+        <v>2107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3031</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>3175</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="1">
+        <v>232</v>
+      </c>
+      <c r="B13">
+        <v>1092</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3031</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2159</v>
+      </c>
+      <c r="S13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="1">
+        <v>251</v>
+      </c>
+      <c r="B14">
+        <v>1074</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3031</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2140</v>
+      </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="1">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <v>1073</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3031</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>2138</v>
+      </c>
+      <c r="S15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="1">
+        <v>306</v>
+      </c>
+      <c r="B16">
+        <v>2131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3031</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>3230</v>
+      </c>
+      <c r="S16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>324</v>
+      </c>
+      <c r="B17">
+        <v>2120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3031</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>3212</v>
+      </c>
+      <c r="T17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>327</v>
+      </c>
+      <c r="B18">
+        <v>2117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3031</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3209</v>
+      </c>
+      <c r="T18" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>361</v>
+      </c>
+      <c r="B19">
+        <v>2107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3031</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3175</v>
+      </c>
+      <c r="T19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>380</v>
+      </c>
+      <c r="B20">
+        <v>1092</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3031</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2159</v>
+      </c>
+      <c r="S20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" t="s">
+        <v>63</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>399</v>
+      </c>
+      <c r="B21">
+        <v>1074</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3031</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>2140</v>
+      </c>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>400</v>
+      </c>
+      <c r="B22">
+        <v>1073</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3031</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>2138</v>
+      </c>
+      <c r="S22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" t="s">
+        <v>65</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>454</v>
+      </c>
+      <c r="B23">
+        <v>2131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3031</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>3230</v>
+      </c>
+      <c r="S23" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>472</v>
+      </c>
+      <c r="B24">
+        <v>2120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3031</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3212</v>
+      </c>
+      <c r="T24" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>475</v>
+      </c>
+      <c r="B25">
+        <v>2117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3031</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3209</v>
+      </c>
+      <c r="T25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>509</v>
+      </c>
+      <c r="B26">
+        <v>2107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3031</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>3175</v>
+      </c>
+      <c r="T26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>528</v>
+      </c>
+      <c r="B27">
+        <v>1092</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3031</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2159</v>
+      </c>
+      <c r="S27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" t="s">
+        <v>63</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>547</v>
+      </c>
+      <c r="B28">
+        <v>1074</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3031</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>2140</v>
+      </c>
+      <c r="T28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>548</v>
+      </c>
+      <c r="B29">
+        <v>1073</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3031</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>2138</v>
+      </c>
+      <c r="S29" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" t="s">
+        <v>65</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>602</v>
+      </c>
+      <c r="B30">
+        <v>2131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3031</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>3230</v>
+      </c>
+      <c r="S30" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>620</v>
+      </c>
+      <c r="B31">
+        <v>2120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3031</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>3212</v>
+      </c>
+      <c r="T31" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>623</v>
+      </c>
+      <c r="B32">
+        <v>2117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3031</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>3209</v>
+      </c>
+      <c r="T32" t="s">
+        <v>55</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>657</v>
+      </c>
+      <c r="B33">
+        <v>2107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3031</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>3175</v>
+      </c>
+      <c r="T33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>676</v>
+      </c>
+      <c r="B34">
+        <v>1092</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3031</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>2159</v>
+      </c>
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>695</v>
+      </c>
+      <c r="B35">
+        <v>1074</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3031</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>2140</v>
+      </c>
+      <c r="T35" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>696</v>
+      </c>
+      <c r="B36">
+        <v>1073</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3031</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>2138</v>
+      </c>
+      <c r="S36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>65</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U3" r:id="rId1"/>
+    <hyperlink ref="U4" r:id="rId2"/>
+    <hyperlink ref="U5" r:id="rId3"/>
+    <hyperlink ref="U7" r:id="rId4"/>
+    <hyperlink ref="U10" r:id="rId5"/>
+    <hyperlink ref="U11" r:id="rId6"/>
+    <hyperlink ref="U12" r:id="rId7"/>
+    <hyperlink ref="U14" r:id="rId8"/>
+    <hyperlink ref="U17" r:id="rId9"/>
+    <hyperlink ref="U18" r:id="rId10"/>
+    <hyperlink ref="U19" r:id="rId11"/>
+    <hyperlink ref="U21" r:id="rId12"/>
+    <hyperlink ref="U24" r:id="rId13"/>
+    <hyperlink ref="U25" r:id="rId14"/>
+    <hyperlink ref="U26" r:id="rId15"/>
+    <hyperlink ref="U28" r:id="rId16"/>
+    <hyperlink ref="U31" r:id="rId17"/>
+    <hyperlink ref="U32" r:id="rId18"/>
+    <hyperlink ref="U33" r:id="rId19"/>
+    <hyperlink ref="U35" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/generatedXlsxFile.xlsx
+++ b/backend/generatedXlsxFile.xlsx
@@ -14,55 +14,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>details_bank</t>
-  </si>
-  <si>
-    <t>details_accNo</t>
-  </si>
-  <si>
-    <t>details_addr</t>
-  </si>
-  <si>
-    <t>frnds_name</t>
-  </si>
-  <si>
-    <t>frnds_best</t>
-  </si>
-  <si>
-    <t>aditi</t>
-  </si>
-  <si>
-    <t>bank5</t>
-  </si>
-  <si>
-    <t>bank4</t>
-  </si>
-  <si>
-    <t>bank3</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>address2222</t>
-  </si>
-  <si>
-    <t>frnd8</t>
-  </si>
-  <si>
-    <t>true</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="69">
+  <si>
+    <t>feeds_id</t>
+  </si>
+  <si>
+    <t>feeds_title</t>
+  </si>
+  <si>
+    <t>feeds_description</t>
+  </si>
+  <si>
+    <t>feeds_location</t>
+  </si>
+  <si>
+    <t>feeds_lng</t>
+  </si>
+  <si>
+    <t>feeds_lat</t>
+  </si>
+  <si>
+    <t>feeds_userId</t>
+  </si>
+  <si>
+    <t>feeds_name</t>
+  </si>
+  <si>
+    <t>feeds_isdeleted</t>
+  </si>
+  <si>
+    <t>feeds_profilePicture</t>
+  </si>
+  <si>
+    <t>feeds_videoUrl</t>
+  </si>
+  <si>
+    <t>feeds_images</t>
+  </si>
+  <si>
+    <t>feeds_mediatype</t>
+  </si>
+  <si>
+    <t>feeds_imagePaths</t>
+  </si>
+  <si>
+    <t>feeds_feedsComment</t>
+  </si>
+  <si>
+    <t>feeds_commentCount</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_id</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_name</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_description</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_url</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_mediatype</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_likeCount</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_place</t>
+  </si>
+  <si>
+    <t>feeds_multiMedia_createAt</t>
+  </si>
+  <si>
+    <t>feeds_likeDislike_likes</t>
+  </si>
+  <si>
+    <t>feeds_likeDislike_dislikes</t>
+  </si>
+  <si>
+    <t>feeds_likeDislike_userAction</t>
+  </si>
+  <si>
+    <t>feeds_createdAt</t>
+  </si>
+  <si>
+    <t>feeds_code</t>
+  </si>
+  <si>
+    <t>feeds_msg</t>
+  </si>
+  <si>
+    <t>totalFeed</t>
+  </si>
+  <si>
+    <t>Hello Aryan</t>
+  </si>
+  <si>
+    <t>Testing Video Details</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testing Images</t>
+  </si>
+  <si>
+    <t>This is test for the iteration</t>
+  </si>
+  <si>
+    <t>Proposed since March 2019. Google Videos is a video search engine from Google, similar to Google Images. It allows searching the World Wide Web for video clips. The service evolved from Google Video, Google's discontinued video hosting service that also allowed to search the web for video clips.
+Proposed since March 2019. Google Videos is a video search engine from Google, similar to Google Images. It allows searching the World Wide Web for video clips. The service evolved from Google Video, Google's discontinued video hosting service that also allowed to search the web for video clips.
+Proposed since March 2019. Google Videos is a video search engine from Google, similar to Google Images. It allows searching the World Wide Web for video clips. The service evolved from Google Video, Google's discontinued video hosting service that also allowed to search the web for video clips.
+Proposed since March 2019. Google Videos is a video search engine from Google, similar to Google Images. It allows searching the World Wide Web for video clips. The service evolved from Google Video, Google's discontinued video hosting service that also allowed to search the web for video clips.</t>
+  </si>
+  <si>
+    <t>Testing Video Details. Testing Video DetailsTesting Video DetailsTesting Video DetailsTesting Video DetailsTesting Video DetailsTesting Video Details. Thanks for the Help</t>
+  </si>
+  <si>
+    <t>Testing for multiple images. Please ignore. Thanks.Testing for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. ThanksTesting for multiple images. Please ignore. Thanks</t>
+  </si>
+  <si>
+    <t>Testing ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting ImagesTesting Images</t>
+  </si>
+  <si>
+    <t>Tap the Tools option at the bottom of the screen, then select Rotate from the menu that appears. At the bottom of the display you'll see an icon the has two arrows pointing at each other, with a dotted vertical line between them. Tap this and you should see your image flip back to a normal orientation.</t>
+  </si>
+  <si>
+    <t>A-10, Sector 63 Rd, A Block, Sector 65, Noida, Uttar Pradesh 201301, India</t>
+  </si>
+  <si>
+    <t>Hermannplatz 5-6, 10967 Berlin, Germany</t>
+  </si>
+  <si>
+    <t>VLCC Building, Shiksha Bharti School Rd, Sector 7 Dwarka, Dwarka, New Delhi, Delhi 110077, India</t>
+  </si>
+  <si>
+    <t>K179, Block M, Vishwakarma Park, Laxmi Nagar, New Delhi, Delhi 110092, India</t>
+  </si>
+  <si>
+    <t>Shweta Singh</t>
+  </si>
+  <si>
+    <t>Ashish Thapliyal</t>
+  </si>
+  <si>
+    <t>faiz</t>
+  </si>
+  <si>
+    <t>Ankiish Thapliyal</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Images/085985b6-0662-4e1d-b5b4-20016d31514f.png</t>
+  </si>
+  <si>
+    <t>Images/fc8af47d-ef15-4c25-9d3f-a7a58c7444f9.png</t>
+  </si>
+  <si>
+    <t>Images/80cdd447-4a3a-483f-b222-86989cc3d37e.png</t>
+  </si>
+  <si>
+    <t>Images/0da0ca00-cfaf-41e8-ab39-cbff55ec64b3.png</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Kwekwe.jpg</t>
+  </si>
+  <si>
+    <t>Aden.jpg</t>
+  </si>
+  <si>
+    <t>Butare.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/hZuwe72Rtcc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/c6OSTcaMU6c</t>
+  </si>
+  <si>
+    <t>feedsmedia/3042/a036275d-0c37-4855-a55f-bd0a710cf4ea.jpg</t>
+  </si>
+  <si>
+    <t>feedsmedia/3047/d63f6bfb-e7f8-4519-898d-e311e091498b.jpg</t>
+  </si>
+  <si>
+    <t>feedsmedia/3047/ba8d9d9b-173a-4804-8fa7-c2b545e23c61.jpg</t>
+  </si>
+  <si>
+    <t>0001-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2019-12-31T09:11:56.4581989</t>
+  </si>
+  <si>
+    <t>2019-12-31T08:02:40.6864975</t>
+  </si>
+  <si>
+    <t>2019-12-31T07:09:33.4293294</t>
+  </si>
+  <si>
+    <t>2019-12-31T07:03:30.8446682</t>
+  </si>
+  <si>
+    <t>2019-12-31T07:01:24.300193</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +245,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,16 +286,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,77 +619,2440 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>2118</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3040</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>3210</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2117</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3031</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>3209</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2116</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>98765</v>
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3042</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>3207</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>2115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3047</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>3204</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>2114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3047</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>3192</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="1">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>2118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3040</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>3210</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1">
+        <v>179</v>
+      </c>
+      <c r="B8">
+        <v>2117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3031</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>3209</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="1">
+        <v>180</v>
+      </c>
+      <c r="B9">
+        <v>2116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3042</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3207</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="1">
+        <v>182</v>
+      </c>
+      <c r="B10">
+        <v>2115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3047</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>3204</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1">
+        <v>185</v>
+      </c>
+      <c r="B11">
+        <v>2114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3047</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3192</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="1">
+        <v>326</v>
+      </c>
+      <c r="B12">
+        <v>2118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3040</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>3210</v>
+      </c>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="1">
+        <v>327</v>
+      </c>
+      <c r="B13">
+        <v>2117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3031</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>3209</v>
+      </c>
+      <c r="T13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="1">
+        <v>328</v>
+      </c>
+      <c r="B14">
+        <v>2116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3042</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3207</v>
+      </c>
+      <c r="S14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="1">
+        <v>330</v>
+      </c>
+      <c r="B15">
+        <v>2115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3047</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>3204</v>
+      </c>
+      <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="1">
+        <v>333</v>
+      </c>
+      <c r="B16">
+        <v>2114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3047</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3192</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>474</v>
+      </c>
+      <c r="B17">
+        <v>2118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3040</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>3210</v>
+      </c>
+      <c r="T17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>475</v>
+      </c>
+      <c r="B18">
+        <v>2117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3031</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3209</v>
+      </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>476</v>
+      </c>
+      <c r="B19">
+        <v>2116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3042</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3207</v>
+      </c>
+      <c r="S19" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>478</v>
+      </c>
+      <c r="B20">
+        <v>2115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3047</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>3204</v>
+      </c>
+      <c r="S20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>481</v>
+      </c>
+      <c r="B21">
+        <v>2114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3047</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>3192</v>
+      </c>
+      <c r="S21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>622</v>
+      </c>
+      <c r="B22">
+        <v>2118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3040</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>3210</v>
+      </c>
+      <c r="T22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>623</v>
+      </c>
+      <c r="B23">
+        <v>2117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3031</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>3209</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>624</v>
+      </c>
+      <c r="B24">
+        <v>2116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3042</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3207</v>
+      </c>
+      <c r="S24" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U24" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>626</v>
+      </c>
+      <c r="B25">
+        <v>2115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3047</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3204</v>
+      </c>
+      <c r="S25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>629</v>
+      </c>
+      <c r="B26">
+        <v>2114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3047</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>3192</v>
+      </c>
+      <c r="S26" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="U3" r:id="rId2"/>
+    <hyperlink ref="U7" r:id="rId3"/>
+    <hyperlink ref="U8" r:id="rId4"/>
+    <hyperlink ref="U12" r:id="rId5"/>
+    <hyperlink ref="U13" r:id="rId6"/>
+    <hyperlink ref="U17" r:id="rId7"/>
+    <hyperlink ref="U18" r:id="rId8"/>
+    <hyperlink ref="U22" r:id="rId9"/>
+    <hyperlink ref="U23" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>